--- a/Labels.xlsx
+++ b/Labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anionline-my.sharepoint.com/personal/amorales_ani_gov_co/Documents/Documentos/GitHub/Problem_-Set_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{C0B2B61D-A640-4090-A5C9-4A2FDE469476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61188AEE-4692-4BB7-861A-5E54397371EB}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{C0B2B61D-A640-4090-A5C9-4A2FDE469476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93988E91-F0AD-4EA0-B70A-6FEBFA2C7D8A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6BF109D-5563-47E3-AC6F-34B1467C8691}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,12 +421,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -475,9 +488,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,11 +506,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64962D63-00FD-400E-BEF5-337D35EEF42D}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +899,7 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -891,7 +910,7 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -968,7 +987,7 @@
       <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -979,7 +998,7 @@
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -994,91 +1013,91 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>9</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1093,51 +1112,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>18568</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1148,7 +1167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1159,7 +1178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1192,7 +1211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1203,7 +1222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1214,7 +1233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1247,7 +1266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1269,7 +1288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -1280,7 +1299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1291,7 +1310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
@@ -1302,7 +1321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -1313,7 +1332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -1324,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
@@ -1335,7 +1354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
@@ -1357,7 +1376,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -1379,7 +1398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
@@ -1390,7 +1409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>33</v>
       </c>
@@ -1401,7 +1420,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -1412,7 +1431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
@@ -1423,7 +1442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
@@ -1456,7 +1475,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>33</v>
       </c>
@@ -1467,7 +1486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>33</v>
       </c>
@@ -1489,7 +1508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>33</v>
       </c>
@@ -1500,7 +1519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>33</v>
       </c>
@@ -1511,7 +1530,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
@@ -1522,7 +1541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
@@ -1544,7 +1563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>33</v>
       </c>
@@ -1555,7 +1574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
@@ -1566,7 +1585,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>33</v>
       </c>
@@ -1588,7 +1607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>33</v>
       </c>
@@ -1599,7 +1618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
@@ -1610,7 +1629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,7 +1640,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>33</v>
       </c>
@@ -1632,7 +1651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
@@ -1643,7 +1662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1673,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>33</v>
       </c>
@@ -1676,7 +1695,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>33</v>
       </c>
@@ -1687,7 +1706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>33</v>
       </c>
@@ -1698,7 +1717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,7 +1728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +1739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>33</v>
       </c>
@@ -1731,7 +1750,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
@@ -1742,7 +1761,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>33</v>
       </c>
@@ -1753,7 +1772,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>33</v>
       </c>
@@ -1764,7 +1783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>33</v>
       </c>
@@ -1775,7 +1794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,7 +1805,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>33</v>
       </c>
@@ -1797,7 +1816,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>33</v>
       </c>
@@ -1808,7 +1827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,7 +1838,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +1849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>33</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
@@ -1852,7 +1871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
@@ -1863,7 +1882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
@@ -1874,7 +1893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>33</v>
       </c>
@@ -1885,7 +1904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
@@ -1896,7 +1915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
@@ -1918,7 +1937,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +1948,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>33</v>
       </c>
@@ -1940,7 +1959,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>33</v>
       </c>
@@ -1951,7 +1970,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,7 +1981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>33</v>
       </c>
@@ -1973,7 +1992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>33</v>
       </c>
@@ -1984,7 +2003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>33</v>
       </c>
@@ -1995,7 +2014,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>33</v>
       </c>
@@ -2006,7 +2025,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>33</v>
       </c>
@@ -2017,7 +2036,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>33</v>
       </c>
@@ -2028,7 +2047,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>33</v>
       </c>
@@ -2040,11 +2059,11 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
